--- a/Dig item data.xlsx
+++ b/Dig item data.xlsx
@@ -1,21 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hình ảnh\group icon\item\sellable - dig\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005A2EAF-F261-4733-AB44-2D638448DD5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Items" sheetId="1" r:id="rId1"/>
-    <sheet name="Notes" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="31">
   <si>
     <t>Item</t>
   </si>
@@ -92,30 +110,33 @@
     <t>Mythic</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Chance and Rarity added per your request.</t>
-  </si>
-  <si>
-    <t>Value = round((100 / drop_chance_percent) * 5).</t>
-  </si>
-  <si>
-    <t>Sell Price = round(Value * 0.6).</t>
-  </si>
-  <si>
-    <t>Tune the multipliers to fit your economy.</t>
+    <t>Item type</t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>Collectible</t>
+  </si>
+  <si>
+    <t>Sellable</t>
+  </si>
+  <si>
+    <t>Cosmetic</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -123,7 +144,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -136,7 +157,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -159,28 +180,95 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -218,7 +306,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -252,6 +340,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -286,9 +375,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -461,307 +551,413 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.8984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.796875" style="3"/>
+    <col min="6" max="6" width="9.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.796875" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="F1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="9"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="6">
         <v>32</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="6">
         <v>16</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="6">
+        <v>1000</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="6">
+        <v>12</v>
+      </c>
+      <c r="D3" s="6">
+        <v>42</v>
+      </c>
+      <c r="E3" s="6">
+        <v>2500</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="D4" s="6">
+        <v>50</v>
+      </c>
+      <c r="E4" s="6">
+        <v>3000</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="6">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6">
+        <v>50</v>
+      </c>
+      <c r="E5" s="6">
+        <v>3000</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="6">
+        <v>8</v>
+      </c>
+      <c r="D6" s="6">
+        <v>62</v>
+      </c>
+      <c r="E6" s="6">
+        <v>92500</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="6">
+        <v>7</v>
+      </c>
+      <c r="D7" s="6">
+        <v>71</v>
+      </c>
+      <c r="E7" s="6">
+        <v>107500</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="6">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3">
+      <c r="D8" s="6">
+        <v>83</v>
+      </c>
+      <c r="E8" s="6">
+        <v>12500</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D3">
-        <v>42</v>
-      </c>
-      <c r="E3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>50</v>
-      </c>
-      <c r="E4">
+      <c r="B9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="6">
+        <v>5</v>
+      </c>
+      <c r="D9" s="6">
+        <v>100</v>
+      </c>
+      <c r="E9" s="6">
+        <v>150000</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="6">
+        <v>4</v>
+      </c>
+      <c r="D10" s="6">
+        <v>125</v>
+      </c>
+      <c r="E10" s="6">
+        <v>187500</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="6">
+        <v>3</v>
+      </c>
+      <c r="D11" s="6">
+        <v>167</v>
+      </c>
+      <c r="E11" s="6">
+        <v>25000</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="D12" s="6">
+        <v>333</v>
+      </c>
+      <c r="E12" s="6">
+        <v>100000</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6">
+        <v>500</v>
+      </c>
+      <c r="E13" s="6">
+        <v>75000</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1667</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>50</v>
-      </c>
-      <c r="E5">
+      <c r="F14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="D15" s="6">
+        <v>2500</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <v>62</v>
-      </c>
-      <c r="E6">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7">
-        <v>7</v>
-      </c>
-      <c r="D7">
-        <v>71</v>
-      </c>
-      <c r="E7">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>83</v>
-      </c>
-      <c r="E8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>100</v>
-      </c>
-      <c r="E9">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <v>125</v>
-      </c>
-      <c r="E10">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11">
-        <v>167</v>
-      </c>
-      <c r="E11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12">
-        <v>1.5</v>
-      </c>
-      <c r="D12">
-        <v>333</v>
-      </c>
-      <c r="E12">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>500</v>
-      </c>
-      <c r="E13">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14">
-        <v>0.3</v>
-      </c>
-      <c r="D14">
-        <v>1667</v>
-      </c>
-      <c r="E14">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15">
-        <v>0.2</v>
-      </c>
-      <c r="D15">
-        <v>2500</v>
-      </c>
-      <c r="E15">
-        <v>1500</v>
-      </c>
+      <c r="F15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F1:I1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Dig item data.xlsx
+++ b/Dig item data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hình ảnh\group icon\item\sellable - dig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005A2EAF-F261-4733-AB44-2D638448DD5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BF28F8-4A08-412C-B464-C9745EE17307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Items" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="46">
   <si>
     <t>Item</t>
   </si>
@@ -126,13 +126,58 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>emoji</t>
+  </si>
+  <si>
+    <t>&lt;:ITRock:1412442400281985044&gt;</t>
+  </si>
+  <si>
+    <t>&lt;:ITWood:1412442427955871845&gt;</t>
+  </si>
+  <si>
+    <t>&lt;:ITCoal:1412442345760362579&gt;</t>
+  </si>
+  <si>
+    <t>&lt;:ITWorm:1412442439762972793&gt;</t>
+  </si>
+  <si>
+    <t>&lt;:ITBronzeCoin:1412442318664896674&gt;</t>
+  </si>
+  <si>
+    <t>&lt;:ITBronzeore:1412442333097496746&gt;</t>
+  </si>
+  <si>
+    <t>&lt;:ITBone:1412442306585301052&gt;</t>
+  </si>
+  <si>
+    <t>&lt;:ITArcsofResurgence:1412442295965581546&gt;</t>
+  </si>
+  <si>
+    <t>&lt;:ITAnt:1412442279393886421&gt;</t>
+  </si>
+  <si>
+    <t>&lt;:ITSilverCoin:1412442414588891166&gt;</t>
+  </si>
+  <si>
+    <t>&lt;:ITGoldCoin:1412442358213247077&gt;</t>
+  </si>
+  <si>
+    <t>&lt;:ITGoldRing:1412442370087321751&gt;</t>
+  </si>
+  <si>
+    <t>&lt;:ITMole:1412442382049349824&gt;</t>
+  </si>
+  <si>
+    <t>&lt;:ITBaconPlush:1412442505244315710&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +193,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -157,7 +211,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -204,19 +258,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -239,15 +280,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -552,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -565,9 +604,10 @@
     <col min="4" max="5" width="8.796875" style="3"/>
     <col min="6" max="6" width="9.19921875" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="8.796875" style="3"/>
+    <col min="9" max="9" width="41" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -588,9 +628,11 @@
       </c>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
-      <c r="I1" s="9"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I1" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -613,10 +655,11 @@
         <v>28</v>
       </c>
       <c r="H2" s="6"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I2" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -639,10 +682,11 @@
         <v>28</v>
       </c>
       <c r="H3" s="6"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I3" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -665,10 +709,11 @@
         <v>28</v>
       </c>
       <c r="H4" s="6"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I4" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -691,10 +736,11 @@
         <v>28</v>
       </c>
       <c r="H5" s="6"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I5" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -717,10 +763,11 @@
         <v>28</v>
       </c>
       <c r="H6" s="6"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I6" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
@@ -743,10 +790,11 @@
         <v>28</v>
       </c>
       <c r="H7" s="6"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I7" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
@@ -769,10 +817,11 @@
         <v>28</v>
       </c>
       <c r="H8" s="6"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I8" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
@@ -795,10 +844,11 @@
         <v>28</v>
       </c>
       <c r="H9" s="6"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I9" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
@@ -821,10 +871,11 @@
         <v>28</v>
       </c>
       <c r="H10" s="6"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I10" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>14</v>
       </c>
@@ -847,10 +898,11 @@
         <v>28</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I11" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
@@ -875,10 +927,11 @@
       <c r="H12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I12" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
@@ -901,10 +954,11 @@
         <v>28</v>
       </c>
       <c r="H13" s="6"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I13" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>17</v>
       </c>
@@ -925,10 +979,11 @@
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I14" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>18</v>
       </c>
@@ -951,13 +1006,15 @@
         <v>29</v>
       </c>
       <c r="H15" s="6"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="4"/>
+      <c r="I15" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Dig item data.xlsx
+++ b/Dig item data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hình ảnh\group icon\item\sellable - dig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BF28F8-4A08-412C-B464-C9745EE17307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798229CE-D2EF-4780-A59D-A1EB89DF2CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Items" sheetId="1" r:id="rId1"/>
@@ -95,9 +95,6 @@
     <t>Common</t>
   </si>
   <si>
-    <t>Uncommon</t>
-  </si>
-  <si>
     <t>Rare</t>
   </si>
   <si>
@@ -171,6 +168,9 @@
   </si>
   <si>
     <t>&lt;:ITBaconPlush:1412442505244315710&gt;</t>
+  </si>
+  <si>
+    <t>Godly</t>
   </si>
 </sst>
 </file>
@@ -280,13 +280,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -593,12 +593,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="17.296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.8984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.8984375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8.796875" style="3"/>
@@ -623,13 +624,13 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="9" t="s">
-        <v>31</v>
+      <c r="F1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -649,14 +650,14 @@
         <v>1000</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -676,14 +677,14 @@
         <v>2500</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -703,14 +704,14 @@
         <v>3000</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -730,14 +731,14 @@
         <v>3000</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -757,14 +758,14 @@
         <v>92500</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -784,14 +785,14 @@
         <v>107500</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -811,14 +812,14 @@
         <v>12500</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -838,14 +839,14 @@
         <v>150000</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -865,14 +866,14 @@
         <v>187500</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -892,14 +893,14 @@
         <v>25000</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -919,16 +920,16 @@
         <v>100000</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="I12" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -948,14 +949,14 @@
         <v>75000</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -972,15 +973,15 @@
         <v>1667</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -988,7 +989,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="C15" s="6">
         <v>0.05</v>
@@ -997,17 +998,17 @@
         <v>2500</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Dig item data.xlsx
+++ b/Dig item data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hình ảnh\group icon\item\sellable - dig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798229CE-D2EF-4780-A59D-A1EB89DF2CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DCC210-D7DB-436F-846B-C275FD450DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Items" sheetId="1" r:id="rId1"/>
@@ -594,7 +594,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -785,7 +785,7 @@
         <v>107500</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>27</v>
